--- a/ExampleFolder/InputData/v_example/Machines - Data/Heat_machines/Heat_machines.xlsx
+++ b/ExampleFolder/InputData/v_example/Machines - Data/Heat_machines/Heat_machines.xlsx
@@ -1,16 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C411C7C3-74DC-4F0B-B060-B04797639BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2048CC-5EA5-4C91-9B77-A39F511572C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIN_ETA" sheetId="2" r:id="rId1"/>
-    <sheet name="Calcs" sheetId="4" r:id="rId2"/>
-    <sheet name="Notes" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Country</t>
   </si>
@@ -64,12 +62,6 @@
   </si>
   <si>
     <t>WRLD</t>
-  </si>
-  <si>
-    <t>An efficiency of 100% was selected as it is assumed that heat is used for space or process heating, and converted without loss as it arrives as useful energy</t>
-  </si>
-  <si>
-    <t>A useful work product of MTH.300.C was assumed as in the absence of sector-specific data it provides a balance between lower temperature 3rd generation district heating systems (&lt;100C) and higher temperature industrial uses.</t>
   </si>
 </sst>
 </file>
@@ -442,19 +434,19 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,7 +652,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -866,37 +858,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -904,43 +896,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF45A96-DDD9-4871-BB24-54F4E91D6DEB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C2B665-D858-43F4-9F49-1F28BB911C0B}">
-  <dimension ref="A2:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>